--- a/data/trans_camb/P07_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P07_R2-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.735492559301223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.530871498210118</v>
+        <v>-1.530871498210107</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.780453468688973</v>
@@ -664,7 +664,7 @@
         <v>4.833817131212004</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.105113987965888</v>
+        <v>0.1051139879658658</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.275497509868837</v>
+        <v>-3.723020790895505</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.0712490423045478</v>
+        <v>-0.2426043436307538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.725745172221446</v>
+        <v>-5.608338376064354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.604143727241897</v>
+        <v>1.316865145485798</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.943426207007684</v>
+        <v>1.271168424599424</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.144358566847764</v>
+        <v>-2.143301599455274</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1064842352673543</v>
+        <v>-0.7446620361021693</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.5180246493461</v>
+        <v>1.22571026906634</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.982290701840498</v>
+        <v>-3.028455796289684</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.466297256432466</v>
+        <v>5.236117547840887</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.753557501619768</v>
+        <v>7.53422785480574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.651489043514368</v>
+        <v>2.600386873363455</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.30248111837925</v>
+        <v>12.092741214495</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.48204984638523</v>
+        <v>12.65971650809062</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.821416218838177</v>
+        <v>7.523408400659575</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.486197720190234</v>
+        <v>6.540522438633194</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.076534209832868</v>
+        <v>7.857780322405447</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.245689494210271</v>
+        <v>3.553147880667581</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.04224177296183387</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.01731143222334007</v>
+        <v>-0.01731143222333994</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.08130951176052534</v>
@@ -769,7 +769,7 @@
         <v>0.0559142464929176</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.001215885763453484</v>
+        <v>0.001215885763453227</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03633101678536784</v>
+        <v>-0.04128169008190645</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0006678050438768823</v>
+        <v>-0.002494104791994097</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.06352888799057642</v>
+        <v>-0.06215302913525207</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.01838375138400743</v>
+        <v>0.015743080505411</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02256400912781287</v>
+        <v>0.01580611081532889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02499363112550434</v>
+        <v>-0.02425532442006309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.001174462704613904</v>
+        <v>-0.00833137328795547</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01794244675784657</v>
+        <v>0.01408066428972484</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.034505144495202</v>
+        <v>-0.03409376213480861</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06374896906235783</v>
+        <v>0.06094049353490508</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09049026251105442</v>
+        <v>0.08776750637211066</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02972736483611017</v>
+        <v>0.03020741893141788</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1531618252501146</v>
+        <v>0.1529593846475856</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.155970142149125</v>
+        <v>0.1587870964438668</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09770345349546435</v>
+        <v>0.09477315576720753</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07692694721713526</v>
+        <v>0.07753737827222021</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09566351202085276</v>
+        <v>0.09283639628229613</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03821030024673032</v>
+        <v>0.04220255429947809</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.4724739275672851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.147319594932117</v>
+        <v>-1.147319594932106</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.230105501608514</v>
@@ -878,7 +878,7 @@
         <v>0.6923304094845206</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.1003282687660367</v>
+        <v>-0.1003282687660256</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.204304906339075</v>
+        <v>-4.481508907685005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.35859540039244</v>
+        <v>-5.244052998363989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.21951967161529</v>
+        <v>-5.182077014959698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.453094890126106</v>
+        <v>-4.127919416898615</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.811913918349981</v>
+        <v>-3.670765789211109</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.061619965784112</v>
+        <v>-3.959712662683641</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.09458968739316</v>
+        <v>-2.811984752491947</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.700653225542027</v>
+        <v>-3.202264600538814</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.215131245272256</v>
+        <v>-2.849186046261841</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.562426914183488</v>
+        <v>4.825786103790015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.922954926272262</v>
+        <v>4.527102499760709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.067427382747408</v>
+        <v>3.64142118260298</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.200531045621032</v>
+        <v>7.143069561240736</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.105129795903931</v>
+        <v>7.126746300419001</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.535794033284341</v>
+        <v>5.363852283547031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.066077354994768</v>
+        <v>4.229701617970475</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.982833235769463</v>
+        <v>4.044601826250076</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.24187203319317</v>
+        <v>3.17771873157665</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.00530086110991646</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.01287220620349396</v>
+        <v>-0.01287220620349384</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0145149721073508</v>
@@ -983,7 +983,7 @@
         <v>0.007965000747731167</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.001154238965662425</v>
+        <v>-0.001154238965662297</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04648800642543969</v>
+        <v>-0.04907294110149873</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05888418805834792</v>
+        <v>-0.05760559083240772</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05673835129992188</v>
+        <v>-0.05689499696794686</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05185677627215637</v>
+        <v>-0.04794173983612644</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04404402850312373</v>
+        <v>-0.04225965262743864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04653011257658209</v>
+        <v>-0.0451027852359247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0349516049678735</v>
+        <v>-0.0316840320746395</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02997022473641468</v>
+        <v>-0.03598036497231426</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.03623413905036185</v>
+        <v>-0.03201835942306394</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05244740339682238</v>
+        <v>0.05585997300266866</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04534744047699036</v>
+        <v>0.05265882254489705</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0353462260285351</v>
+        <v>0.04239438109098358</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08731236359328041</v>
+        <v>0.08688120791312408</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08676409845391646</v>
+        <v>0.08767893663014736</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0670055782494013</v>
+        <v>0.06660341145538577</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04863188427691433</v>
+        <v>0.04994651591121649</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04680657545116256</v>
+        <v>0.04766323351344372</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03836618968758593</v>
+        <v>0.03705573527135975</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.193249341933511</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.147690975036267</v>
+        <v>-4.147690975036278</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.862079207957347</v>
@@ -1092,7 +1092,7 @@
         <v>-0.761524311224715</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.455488812559637</v>
+        <v>-3.455488812559626</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.58791476231507</v>
+        <v>-10.57664156046686</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.636422518476117</v>
+        <v>-5.928909233901731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.872806290747706</v>
+        <v>-9.126517274613922</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.996789594920366</v>
+        <v>-5.017862024823951</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.458771684210356</v>
+        <v>-9.058194055856244</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.059902831183035</v>
+        <v>-7.645022419747649</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.500414730276346</v>
+        <v>-7.621216819464204</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.067630134364509</v>
+        <v>-5.4842656638222</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.411164934483947</v>
+        <v>-7.730353622069392</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.081290836392313</v>
+        <v>-0.9504047905912107</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.615417837581635</v>
+        <v>3.461975776374329</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7482844974599852</v>
+        <v>0.7376661247805826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.96633917902972</v>
+        <v>12.65416472591497</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.24161436307446</v>
+        <v>12.14412201790749</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.138595913134688</v>
+        <v>9.570989005508741</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2839761376993037</v>
+        <v>0.5389840625301822</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.35000041170853</v>
+        <v>3.291910400355372</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6945762434961079</v>
+        <v>0.4884643492358681</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.0142541359362876</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.0495468540414871</v>
+        <v>-0.04954685404148723</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.05373121709323432</v>
@@ -1197,7 +1197,7 @@
         <v>-0.009411239460667126</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.04270439195349435</v>
+        <v>-0.04270439195349422</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1256684433346211</v>
+        <v>-0.1253352689183233</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06560053536741166</v>
+        <v>-0.0698059022257136</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1036257452187996</v>
+        <v>-0.1071258049851841</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.06487563540039688</v>
+        <v>-0.06296006312178336</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1118835922206098</v>
+        <v>-0.1193007687314946</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1055275591302471</v>
+        <v>-0.1006467890039975</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09098001546778861</v>
+        <v>-0.09223289696710746</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0613379095862384</v>
+        <v>-0.06626936325514035</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09003221330335255</v>
+        <v>-0.09338718872170974</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.01377691798685501</v>
+        <v>-0.01288943460421887</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04456984927817934</v>
+        <v>0.04226182162199964</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.00931042975293743</v>
+        <v>0.008746061680907691</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1956287862356618</v>
+        <v>0.192462672588434</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1672011925142374</v>
+        <v>0.1815607483547906</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1401636976730652</v>
+        <v>0.1460178065743963</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.003463479629151974</v>
+        <v>0.006731623370374499</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04207522465114794</v>
+        <v>0.04172708233061606</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.008598048731416006</v>
+        <v>0.00585250567409513</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>1.489728254532485</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.3338064334521551</v>
+        <v>-0.333806433452144</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.347563634075694</v>
+        <v>-4.395193266109565</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.411809391491596</v>
+        <v>-3.276004399532683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.6445735636919</v>
+        <v>-5.931079747351804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.440458145771409</v>
+        <v>-1.717464167116428</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.219055919699448</v>
+        <v>-0.0484346038092462</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.3025240259028838</v>
+        <v>-0.1528553631488828</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.361384631943762</v>
+        <v>-1.889613987483116</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.178175078038341</v>
+        <v>-1.139915520732186</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.959868643453802</v>
+        <v>-2.810827720077724</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.300147172700245</v>
+        <v>2.467491029550615</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.717566600615106</v>
+        <v>3.373659808961121</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9335627863667438</v>
+        <v>0.5881586362506052</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.393415617123207</v>
+        <v>7.186323538496711</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.882917231355554</v>
+        <v>8.941344157160243</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.632550342254799</v>
+        <v>7.529184942901118</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.040375892929233</v>
+        <v>3.216180045437978</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.024474754036238</v>
+        <v>4.02426880086571</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.110982302196129</v>
+        <v>2.3402240249644</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.01885537511505865</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.004224962169718314</v>
+        <v>-0.004224962169718173</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05247831022006162</v>
+        <v>-0.05386744887003199</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04160376967048439</v>
+        <v>-0.04025323406260867</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06844113906592318</v>
+        <v>-0.07212509197689163</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01838211984981356</v>
+        <v>-0.02199975253783451</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.003210784970793609</v>
+        <v>-0.0004430660677144861</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.004699930594187369</v>
+        <v>-0.001606784831188459</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02961397364363</v>
+        <v>-0.02376647965864294</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01490687226778182</v>
+        <v>-0.01402857025274749</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.03670528888652543</v>
+        <v>-0.03472424002269002</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02894989737669829</v>
+        <v>0.03073995245122776</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.03460595987734457</v>
+        <v>0.04234666935118615</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01184696852304145</v>
+        <v>0.007141309288868693</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1017868377359439</v>
+        <v>0.09751488006244155</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1232061332636179</v>
+        <v>0.1227455770115743</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1049347637973765</v>
+        <v>0.1032842002429974</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03957051037869754</v>
+        <v>0.04137094365611158</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05185570696743291</v>
+        <v>0.0516100727621109</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.02708520424987013</v>
+        <v>0.03015260670582971</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.091938516528101</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.7996939510039</v>
+        <v>1.799693951003889</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-3.326635545220413</v>
@@ -1511,7 +1511,7 @@
         <v>1.584564531967869</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.144505363167325</v>
+        <v>-1.144505363167314</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.07248949607590038</v>
@@ -1520,7 +1520,7 @@
         <v>2.126311454760554</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.2998618754860738</v>
+        <v>0.2998618754860627</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8555191112138948</v>
+        <v>-1.164800509324409</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.049693685203378</v>
+        <v>-4.431491060464977</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.427969691040182</v>
+        <v>-3.44176434805855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.692050308868836</v>
+        <v>-8.743326707481138</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.782100280112381</v>
+        <v>-4.028870535061795</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.749166796964103</v>
+        <v>-5.69385874321272</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.179895616807064</v>
+        <v>-4.20730378613998</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.735916938748981</v>
+        <v>-1.417670602889412</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.901401001822481</v>
+        <v>-3.316577638911093</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.8383973435293</v>
+        <v>9.763603986288684</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.445337243068375</v>
+        <v>6.907770669875188</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.401643717098709</v>
+        <v>8.014194029862892</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.528090380286113</v>
+        <v>2.26627420491891</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.997935330012639</v>
+        <v>7.054491615819752</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.948712836727725</v>
+        <v>3.884698888063599</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.998780664648299</v>
+        <v>4.00483395475457</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.394934927798736</v>
+        <v>6.306209814784958</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.860926439895047</v>
+        <v>4.324635080936808</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.01416338118856545</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.02334357755954081</v>
+        <v>0.02334357755954067</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04963596986271986</v>
@@ -1616,7 +1616,7 @@
         <v>0.02364292579849794</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01707690335826392</v>
+        <v>-0.01707690335826376</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.001022958393747416</v>
@@ -1625,7 +1625,7 @@
         <v>0.03000611492858374</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.004231595460011776</v>
+        <v>0.00423159546001162</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01072774618748714</v>
+        <v>-0.01449818340913429</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0635386245229688</v>
+        <v>-0.05548245963944916</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05528644645218176</v>
+        <v>-0.04315419380021673</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1250526408550627</v>
+        <v>-0.1244235660800879</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05540931550930801</v>
+        <v>-0.05587170607171327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08152723549808374</v>
+        <v>-0.08013967271978693</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05616606895158768</v>
+        <v>-0.05663024387715066</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.02354609019314185</v>
+        <v>-0.01876985604456123</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05314878359697161</v>
+        <v>-0.0453028980520009</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1472709495188927</v>
+        <v>0.1333240576208091</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08786251973988832</v>
+        <v>0.0949567208466757</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1004686491515548</v>
+        <v>0.1091099968216974</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.02419641316675938</v>
+        <v>0.03570155453474759</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1098585392249763</v>
+        <v>0.1112816842336845</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06294625980874799</v>
+        <v>0.06117645333149765</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05823731425666343</v>
+        <v>0.05834822315566161</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09334951405295197</v>
+        <v>0.0939258936137292</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.05653919469554144</v>
+        <v>0.06384735268521889</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.8967666808743724</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.4417670999694034</v>
+        <v>-0.4417670999694145</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3.32217331613639</v>
@@ -1725,7 +1725,7 @@
         <v>6.908567483469453</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.375035121695049</v>
+        <v>6.375035121695061</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.528939032804522</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.023358885698612</v>
+        <v>-5.128322446724832</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.795303067194956</v>
+        <v>-2.180642271886076</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.303762232425859</v>
+        <v>-4.610060771476871</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.6408972280993507</v>
+        <v>-0.4617668987878007</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.128289156030125</v>
+        <v>2.938752124313813</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.542362758442653</v>
+        <v>2.651542111666041</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.7470625728741247</v>
+        <v>-0.9004446700673092</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.772667013133908</v>
+        <v>2.752422110899768</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.579281311283739</v>
+        <v>2.499539958362233</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.52957518339107</v>
+        <v>2.654864044416302</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.294625901862067</v>
+        <v>3.834380782079537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.715337317577434</v>
+        <v>2.921561077422632</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.062798511258313</v>
+        <v>7.433123671386658</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.06274609449388</v>
+        <v>10.79040231323513</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.01133547487068</v>
+        <v>10.16867973808112</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.847629417003125</v>
+        <v>5.937172154165711</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.539448335261044</v>
+        <v>9.510972838943246</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.292645800068779</v>
+        <v>9.000133101322954</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.009340227195077613</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.004601202485580339</v>
+        <v>-0.004601202485580455</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.05192691984081601</v>
@@ -1830,7 +1830,7 @@
         <v>0.1079837190270956</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09964439126000586</v>
+        <v>0.09964439126000603</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.03604901629070388</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.05178921706534489</v>
+        <v>-0.05300279507348247</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01839683348076074</v>
+        <v>-0.02217458310385921</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0438761783830403</v>
+        <v>-0.04723399136209809</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.009391232261474577</v>
+        <v>-0.006439543076647154</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.04781741680424571</v>
+        <v>0.04399564911838021</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03802419797756131</v>
+        <v>0.03926432048063522</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.01093484905075965</v>
+        <v>-0.01209981395441166</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.03904631779858984</v>
+        <v>0.03898657974519418</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.03631194541052203</v>
+        <v>0.03472201313087778</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.02661479062033109</v>
+        <v>0.02813067193002301</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.04600415477879118</v>
+        <v>0.04079687403797991</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.02857757711914859</v>
+        <v>0.03118881559855655</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1140004058567098</v>
+        <v>0.1194117002737773</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1818911302438122</v>
+        <v>0.1738230063841043</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1605541097511119</v>
+        <v>0.1648150046490389</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08583553934390069</v>
+        <v>0.08700190395648516</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1381282267353552</v>
+        <v>0.139135950936683</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1359291301360296</v>
+        <v>0.1309747871546255</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.818253799419627</v>
+        <v>-2.882979664123762</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.788986032654923</v>
+        <v>-1.967763799801061</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.641049648159352</v>
+        <v>-3.770497343755948</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.05061851890635224</v>
+        <v>-0.1462115831851025</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.772040884330577</v>
+        <v>2.690549124908055</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.039900955015975</v>
+        <v>1.997531939762081</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.866265698206104</v>
+        <v>-0.9819053959797234</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.093044287962039</v>
+        <v>1.054011390381253</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3223258800253573</v>
+        <v>-0.3503233042865828</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.8091203254522802</v>
+        <v>0.7173302287494645</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.696404092660565</v>
+        <v>1.540280480407521</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.07335774434632285</v>
+        <v>-0.1109848282048899</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.127885234501296</v>
+        <v>4.142034424939409</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.790829788552174</v>
+        <v>7.057460627827419</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.703655125727732</v>
+        <v>5.982257268267296</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.025065514642766</v>
+        <v>1.880822913731154</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.853080294448471</v>
+        <v>3.798903376096787</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.436574832273001</v>
+        <v>2.424752208078987</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03327599719124474</v>
+        <v>-0.03367842988481169</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02103130981721639</v>
+        <v>-0.02284709124618596</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.04289356634699522</v>
+        <v>-0.0443429464152524</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0006722439866367917</v>
+        <v>-0.002077934627528694</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03825926491085599</v>
+        <v>0.03712796227014488</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02815661014495311</v>
+        <v>0.0274787709406644</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01098895657593676</v>
+        <v>-0.01255940864199213</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.01397568648180964</v>
+        <v>0.01300188263776908</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.004110511857220712</v>
+        <v>-0.00448639528066049</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.009721594669271447</v>
+        <v>0.008678577935417832</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.02032779259947146</v>
+        <v>0.01852494940529869</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.001237302754669272</v>
+        <v>-0.001367545514107526</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.05909884328209296</v>
+        <v>0.05865868644467234</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.09678858416671288</v>
+        <v>0.1005075064094739</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.08120273689155809</v>
+        <v>0.08519400568221026</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02640946145503062</v>
+        <v>0.02440588596273907</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.0499835889704579</v>
+        <v>0.04923022988907104</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.03155625084986218</v>
+        <v>0.03139579533818088</v>
       </c>
     </row>
     <row r="46">
